--- a/com.Ecommerce/src/main/resources/TestData/TestData.xlsx
+++ b/com.Ecommerce/src/main/resources/TestData/TestData.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7500"/>
+    <workbookView windowWidth="20490" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="9" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="10" r:id="rId2"/>
+    <sheet name="InvalidData" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>First Name</t>
   </si>
@@ -45,6 +47,75 @@
   </si>
   <si>
     <t>Kalal@123</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>amansingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Aman@123</t>
+  </si>
+  <si>
+    <t>PixelVoyager</t>
+  </si>
+  <si>
+    <t>Pixel@123</t>
+  </si>
+  <si>
+    <t>FrostNova77</t>
+  </si>
+  <si>
+    <t>QuantumEcho</t>
+  </si>
+  <si>
+    <t>ShadowCraze</t>
+  </si>
+  <si>
+    <t>BlazeDrift9</t>
+  </si>
+  <si>
+    <t>NeonWraith</t>
+  </si>
+  <si>
+    <t>GlitchVortex</t>
+  </si>
+  <si>
+    <t>TurboPineapple</t>
+  </si>
+  <si>
+    <t>NovaWhisker</t>
+  </si>
+  <si>
+    <t>CrypticBouncer</t>
+  </si>
+  <si>
+    <t>VoidJumper42</t>
+  </si>
+  <si>
+    <t>PixelPhantom</t>
+  </si>
+  <si>
+    <t>SkyFrostEcho</t>
+  </si>
+  <si>
+    <t>TurboLynx</t>
+  </si>
+  <si>
+    <t>CrimsonDrift</t>
+  </si>
+  <si>
+    <t>NebulaSnap</t>
+  </si>
+  <si>
+    <t>GlitchWolfX</t>
+  </si>
+  <si>
+    <t>AstroVortex9</t>
+  </si>
+  <si>
+    <t>ShadowSpire</t>
   </si>
 </sst>
 </file>
@@ -76,15 +147,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,12 +630,12 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,8 +760,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1026,31 +1109,31 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="348" zoomScaleNormal="348" workbookViewId="0">
+    <sheetView zoomScale="348" zoomScaleNormal="348" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1058,4 +1141,245 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="379" zoomScaleNormal="379" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="23.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="amansingh@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Aman@123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B3" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B4" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B5" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B6" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B7" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B8" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B9" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B10" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B11" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B12" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B13" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B14" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B15" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B16" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B17" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B18" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B19" r:id="rId1" display="Pixel@123"/>
+    <hyperlink ref="B20" r:id="rId1" display="Pixel@123"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/com.Ecommerce/src/main/resources/TestData/TestData.xlsx
+++ b/com.Ecommerce/src/main/resources/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7050" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterData" sheetId="9" r:id="rId1"/>
@@ -52,10 +52,10 @@
     <t>Username</t>
   </si>
   <si>
-    <t>amansingh@gmail.com</t>
-  </si>
-  <si>
-    <t>Aman@123</t>
+    <t>Kumar1001@gmail.com</t>
+  </si>
+  <si>
+    <t>kumar@123</t>
   </si>
   <si>
     <t>PixelVoyager</t>
@@ -760,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,13 +773,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,24 +1110,24 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1148,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="379" zoomScaleNormal="379" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScale="379" zoomScaleNormal="379" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1175,8 +1169,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="amansingh@gmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="Aman@123"/>
+    <hyperlink ref="A2" r:id="rId1" display="Kumar1001@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="kumar@123"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1188,7 +1182,7 @@
   <sheetPr/>
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
